--- a/Waho/wwwroot/InventoryDetail.xlsx
+++ b/Waho/wwwroot/InventoryDetail.xlsx
@@ -128,7 +128,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">

--- a/Waho/wwwroot/InventoryDetail.xlsx
+++ b/Waho/wwwroot/InventoryDetail.xlsx
@@ -26,7 +26,7 @@
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>2/3/2023 12:00:00 AM</t>
+    <t>6/3/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>Tổng tiền chênh</t>
@@ -128,7 +128,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">

--- a/Waho/wwwroot/InventoryDetail.xlsx
+++ b/Waho/wwwroot/InventoryDetail.xlsx
@@ -26,13 +26,13 @@
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>6/3/2023 12:00:00 AM</t>
+    <t>27/3/2023 12:00:00 AM</t>
   </si>
   <si>
     <t>Tổng tiền chênh</t>
   </si>
   <si>
-    <t>52000000 đồng</t>
+    <t>47800000 đồng</t>
   </si>
   <si>
     <t>Tên sản phẩm</t>
@@ -128,7 +128,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -177,16 +177,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="0">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0">
         <v>100</v>
       </c>
       <c r="D6" s="0">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="E6" s="0">
-        <v>4000000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="7">
@@ -214,10 +214,10 @@
         <v>100</v>
       </c>
       <c r="C8" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E8" s="0">
         <v>0</v>
@@ -299,10 +299,10 @@
         <v>100</v>
       </c>
       <c r="C13" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>100</v>
       </c>
       <c r="C40" s="0">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D40" s="0">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E40" s="0">
-        <v>0</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="41">
